--- a/data-raw/smith.beans.xlsx
+++ b/data-raw/smith.beans.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CEB876-18D7-4E03-9841-CFAA685C81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="15168" windowHeight="9360"/>
+    <workbookView xWindow="1760" yWindow="720" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,14 +65,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -108,7 +113,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -180,7 +185,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -353,19 +358,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="18" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0.93</v>
       </c>
@@ -421,7 +426,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.75</v>
       </c>
@@ -477,7 +482,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.42</v>
       </c>
@@ -533,7 +538,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.64</v>
       </c>
@@ -589,7 +594,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.57999999999999996</v>
       </c>
@@ -645,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.59</v>
       </c>
@@ -701,7 +706,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.69</v>
       </c>
@@ -757,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.79</v>
       </c>
@@ -813,7 +818,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.73</v>
       </c>
@@ -869,7 +874,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.73</v>
       </c>
@@ -925,7 +930,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.7</v>
       </c>
@@ -981,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.68</v>
       </c>
@@ -1043,19 +1048,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="18" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0.92</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.97</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -1223,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.03</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.03</v>
       </c>
@@ -1335,7 +1340,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.1000000000000001</v>
       </c>
@@ -1391,7 +1396,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.04</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.24</v>
       </c>
@@ -1503,7 +1508,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.2</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.1299999999999999</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.1299999999999999</v>
       </c>
@@ -1671,7 +1676,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.21</v>
       </c>
@@ -1733,19 +1738,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>2.68</v>
       </c>
@@ -1795,7 +1800,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.52</v>
       </c>
@@ -1845,7 +1850,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.64</v>
       </c>
@@ -1895,7 +1900,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.16</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.4</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2.4700000000000002</v>
       </c>
@@ -2045,7 +2050,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.25</v>
       </c>
@@ -2095,7 +2100,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2145,7 +2150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.08</v>
       </c>
@@ -2195,7 +2200,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3.29</v>
       </c>
@@ -2245,7 +2250,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.61</v>
       </c>
@@ -2295,7 +2300,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3.42</v>
       </c>
@@ -2345,7 +2350,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.89</v>
       </c>
@@ -2395,7 +2400,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3.72</v>
       </c>
@@ -2445,7 +2450,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.76</v>
       </c>
@@ -2501,19 +2506,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>3.27</v>
       </c>
@@ -2563,7 +2568,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3.33</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.44</v>
       </c>
@@ -2663,7 +2668,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.19</v>
       </c>
@@ -2713,7 +2718,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.68</v>
       </c>
@@ -2763,7 +2768,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.56</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3.45</v>
       </c>
@@ -2863,7 +2868,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3.57</v>
       </c>
@@ -2913,7 +2918,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.14</v>
       </c>
@@ -2963,7 +2968,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3.5</v>
       </c>
@@ -3013,7 +3018,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.3</v>
       </c>
@@ -3063,7 +3068,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.79</v>
       </c>
@@ -3113,7 +3118,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.33</v>
       </c>
@@ -3163,7 +3168,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3.21</v>
       </c>
@@ -3213,7 +3218,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.31</v>
       </c>
